--- a/card_information_sheet.xlsx
+++ b/card_information_sheet.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AllThatStax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF75101-2397-482A-94E2-69C91C838B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F01379F-1214-498D-9E16-9BEE511C30DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Multiface Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7228" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7255" uniqueCount="1650">
   <si>
     <t>英文名称</t>
   </si>
@@ -5739,6 +5740,36 @@
   <si>
     <t>分类类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面中文名称</t>
+  </si>
+  <si>
+    <t>正面卡图名称</t>
+  </si>
+  <si>
+    <t>正面法术力费用</t>
+  </si>
+  <si>
+    <t>正面牌张类别</t>
+  </si>
+  <si>
+    <t>正面文本叙述</t>
+  </si>
+  <si>
+    <t>反面中文名称</t>
+  </si>
+  <si>
+    <t>反面卡图名称</t>
+  </si>
+  <si>
+    <t>反面法术力费用</t>
+  </si>
+  <si>
+    <t>反面牌张类别</t>
+  </si>
+  <si>
+    <t>反面文本叙述</t>
   </si>
 </sst>
 </file>
@@ -6082,7 +6113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
@@ -29633,4 +29664,116 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516FE6CB-11DB-4C18-A209-96E2C9E99274}">
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/card_information_sheet.xlsx
+++ b/card_information_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AllThatStax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FA21F-C1D5-4DE6-B59F-E362BA70A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C81233-1975-42CF-910F-775747CE3ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8062" uniqueCount="1890">
   <si>
     <t>英文名称</t>
   </si>
@@ -3525,11 +3525,6 @@
     <t>传奇生物 ～恶魔</t>
   </si>
   <si>
-    <t>飞行，践踏
-每当一位对手搜寻其牌库时，该牌手牺牲一个生物且失去10点生命。
-每当另一个生物死去时，在破枷的欧尼希兹上放置一个+1/+1指示物。</t>
-  </si>
-  <si>
     <t>搜寻牌库税</t>
   </si>
   <si>
@@ -6123,6 +6118,40 @@
   </si>
   <si>
     <t>探索旷土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返璞归真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古斗技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑制兽性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搅念师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行，践踏
+每当一位对手搜寻其牌库时，该牌手牺牲一个生物且失去10点生命。
+每当另一个生物死去时，在破枷的欧尼希兹上放置一个+1/+1指示物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑深渊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6166,8 +6195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6450,8 +6482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V374"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330:XFD330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6539,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -6607,7 +6639,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -6743,7 +6775,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -7623,6 +7655,9 @@
       <c r="A18" t="s">
         <v>125</v>
       </c>
+      <c r="B18" t="s">
+        <v>1883</v>
+      </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
@@ -8297,6 +8332,9 @@
       <c r="A28" t="s">
         <v>179</v>
       </c>
+      <c r="B28" t="s">
+        <v>1882</v>
+      </c>
       <c r="C28" t="s">
         <v>180</v>
       </c>
@@ -8904,7 +8942,7 @@
         <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C37" t="s">
         <v>227</v>
@@ -9173,7 +9211,7 @@
         <v>247</v>
       </c>
       <c r="B41" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C41" t="s">
         <v>248</v>
@@ -9241,7 +9279,7 @@
         <v>252</v>
       </c>
       <c r="B42" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C42" t="s">
         <v>253</v>
@@ -9309,7 +9347,7 @@
         <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C43" t="s">
         <v>257</v>
@@ -9441,6 +9479,9 @@
       <c r="A45" t="s">
         <v>265</v>
       </c>
+      <c r="B45" t="s">
+        <v>1884</v>
+      </c>
       <c r="C45" t="s">
         <v>266</v>
       </c>
@@ -9575,7 +9616,7 @@
         <v>275</v>
       </c>
       <c r="B47" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C47" t="s">
         <v>276</v>
@@ -9643,7 +9684,7 @@
         <v>279</v>
       </c>
       <c r="B48" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C48" t="s">
         <v>280</v>
@@ -9711,7 +9752,7 @@
         <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C49" t="s">
         <v>283</v>
@@ -9779,7 +9820,7 @@
         <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C50" t="s">
         <v>287</v>
@@ -9915,7 +9956,7 @@
         <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C52" t="s">
         <v>297</v>
@@ -10255,7 +10296,7 @@
         <v>321</v>
       </c>
       <c r="B57" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C57" t="s">
         <v>322</v>
@@ -10323,7 +10364,7 @@
         <v>325</v>
       </c>
       <c r="B58" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C58" t="s">
         <v>326</v>
@@ -10459,7 +10500,7 @@
         <v>332</v>
       </c>
       <c r="B60" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C60" t="s">
         <v>333</v>
@@ -10527,7 +10568,7 @@
         <v>336</v>
       </c>
       <c r="B61" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C61" t="s">
         <v>337</v>
@@ -10867,7 +10908,7 @@
         <v>362</v>
       </c>
       <c r="B66" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C66" t="s">
         <v>363</v>
@@ -10935,7 +10976,7 @@
         <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C67" t="s">
         <v>367</v>
@@ -11071,7 +11112,7 @@
         <v>374</v>
       </c>
       <c r="B69" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C69" t="s">
         <v>375</v>
@@ -11411,7 +11452,7 @@
         <v>397</v>
       </c>
       <c r="B74" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C74" t="s">
         <v>398</v>
@@ -11547,7 +11588,7 @@
         <v>404</v>
       </c>
       <c r="B76" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C76" t="s">
         <v>405</v>
@@ -11615,7 +11656,7 @@
         <v>408</v>
       </c>
       <c r="B77" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C77" t="s">
         <v>409</v>
@@ -12159,7 +12200,7 @@
         <v>445</v>
       </c>
       <c r="B85" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C85" t="s">
         <v>446</v>
@@ -12771,7 +12812,7 @@
         <v>492</v>
       </c>
       <c r="B94" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C94" t="s">
         <v>493</v>
@@ -12839,7 +12880,7 @@
         <v>496</v>
       </c>
       <c r="B95" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C95" t="s">
         <v>497</v>
@@ -12907,7 +12948,7 @@
         <v>499</v>
       </c>
       <c r="B96" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C96" t="s">
         <v>500</v>
@@ -12975,7 +13016,7 @@
         <v>503</v>
       </c>
       <c r="B97" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C97" t="s">
         <v>504</v>
@@ -13111,7 +13152,7 @@
         <v>513</v>
       </c>
       <c r="B99" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C99" t="s">
         <v>514</v>
@@ -13179,7 +13220,7 @@
         <v>517</v>
       </c>
       <c r="B100" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C100" t="s">
         <v>518</v>
@@ -13247,7 +13288,7 @@
         <v>520</v>
       </c>
       <c r="B101" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C101" t="s">
         <v>521</v>
@@ -13451,7 +13492,7 @@
         <v>533</v>
       </c>
       <c r="B104" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C104" t="s">
         <v>534</v>
@@ -13655,7 +13696,7 @@
         <v>545</v>
       </c>
       <c r="B107" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C107" t="s">
         <v>546</v>
@@ -13791,7 +13832,7 @@
         <v>554</v>
       </c>
       <c r="B109" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C109" t="s">
         <v>555</v>
@@ -13859,7 +13900,7 @@
         <v>557</v>
       </c>
       <c r="B110" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C110" t="s">
         <v>558</v>
@@ -13927,7 +13968,7 @@
         <v>560</v>
       </c>
       <c r="B111" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C111" t="s">
         <v>561</v>
@@ -14403,7 +14444,7 @@
         <v>593</v>
       </c>
       <c r="B118" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C118" t="s">
         <v>594</v>
@@ -14471,7 +14512,7 @@
         <v>598</v>
       </c>
       <c r="B119" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C119" t="s">
         <v>599</v>
@@ -14607,7 +14648,7 @@
         <v>605</v>
       </c>
       <c r="B121" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C121" t="s">
         <v>606</v>
@@ -14675,7 +14716,7 @@
         <v>611</v>
       </c>
       <c r="B122" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C122" t="s">
         <v>612</v>
@@ -14743,7 +14784,7 @@
         <v>615</v>
       </c>
       <c r="B123" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C123" t="s">
         <v>616</v>
@@ -14811,7 +14852,7 @@
         <v>619</v>
       </c>
       <c r="B124" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C124" t="s">
         <v>620</v>
@@ -15219,7 +15260,7 @@
         <v>645</v>
       </c>
       <c r="B130" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C130" t="s">
         <v>646</v>
@@ -15287,7 +15328,7 @@
         <v>648</v>
       </c>
       <c r="B131" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C131" t="s">
         <v>649</v>
@@ -15762,6 +15803,9 @@
       <c r="A138" t="s">
         <v>683</v>
       </c>
+      <c r="B138" t="s">
+        <v>1885</v>
+      </c>
       <c r="C138" t="s">
         <v>684</v>
       </c>
@@ -15896,7 +15940,7 @@
         <v>691</v>
       </c>
       <c r="B140" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C140" t="s">
         <v>692</v>
@@ -15964,7 +16008,7 @@
         <v>694</v>
       </c>
       <c r="B141" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C141" t="s">
         <v>695</v>
@@ -16100,7 +16144,7 @@
         <v>702</v>
       </c>
       <c r="B143" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C143" t="s">
         <v>703</v>
@@ -16304,7 +16348,7 @@
         <v>714</v>
       </c>
       <c r="B146" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C146" t="s">
         <v>715</v>
@@ -16644,7 +16688,7 @@
         <v>738</v>
       </c>
       <c r="B151" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C151" t="s">
         <v>739</v>
@@ -16712,7 +16756,7 @@
         <v>741</v>
       </c>
       <c r="B152" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C152" t="s">
         <v>742</v>
@@ -17120,7 +17164,7 @@
         <v>768</v>
       </c>
       <c r="B158" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C158" t="s">
         <v>769</v>
@@ -17188,7 +17232,7 @@
         <v>771</v>
       </c>
       <c r="B159" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C159" t="s">
         <v>772</v>
@@ -17392,7 +17436,7 @@
         <v>782</v>
       </c>
       <c r="B162" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C162" t="s">
         <v>783</v>
@@ -17596,7 +17640,7 @@
         <v>796</v>
       </c>
       <c r="B165" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C165" t="s">
         <v>797</v>
@@ -17664,7 +17708,7 @@
         <v>801</v>
       </c>
       <c r="B166" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C166" t="s">
         <v>802</v>
@@ -18072,7 +18116,7 @@
         <v>827</v>
       </c>
       <c r="B172" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C172" t="s">
         <v>828</v>
@@ -18276,7 +18320,7 @@
         <v>840</v>
       </c>
       <c r="B175" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C175" t="s">
         <v>841</v>
@@ -18412,7 +18456,7 @@
         <v>848</v>
       </c>
       <c r="B177" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C177" t="s">
         <v>849</v>
@@ -18751,6 +18795,9 @@
       <c r="A182" t="s">
         <v>872</v>
       </c>
+      <c r="B182" t="s">
+        <v>1886</v>
+      </c>
       <c r="C182" t="s">
         <v>873</v>
       </c>
@@ -19293,7 +19340,7 @@
         <v>909</v>
       </c>
       <c r="B190" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C190" t="s">
         <v>910</v>
@@ -19361,7 +19408,7 @@
         <v>912</v>
       </c>
       <c r="B191" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C191" t="s">
         <v>913</v>
@@ -19497,7 +19544,7 @@
         <v>919</v>
       </c>
       <c r="B193" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C193" t="s">
         <v>920</v>
@@ -19973,7 +20020,7 @@
         <v>953</v>
       </c>
       <c r="B200" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C200" t="s">
         <v>954</v>
@@ -20041,7 +20088,7 @@
         <v>956</v>
       </c>
       <c r="B201" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C201" t="s">
         <v>957</v>
@@ -20313,7 +20360,7 @@
         <v>971</v>
       </c>
       <c r="B205" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C205" t="s">
         <v>972</v>
@@ -20381,7 +20428,7 @@
         <v>974</v>
       </c>
       <c r="B206" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C206" t="s">
         <v>975</v>
@@ -20449,7 +20496,7 @@
         <v>977</v>
       </c>
       <c r="B207" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C207" t="s">
         <v>978</v>
@@ -20789,7 +20836,7 @@
         <v>999</v>
       </c>
       <c r="B212" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C212" t="s">
         <v>1000</v>
@@ -20857,7 +20904,7 @@
         <v>1004</v>
       </c>
       <c r="B213" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C213" t="s">
         <v>1005</v>
@@ -21128,6 +21175,9 @@
       <c r="A217" t="s">
         <v>1021</v>
       </c>
+      <c r="B217" t="s">
+        <v>1887</v>
+      </c>
       <c r="C217" t="s">
         <v>1022</v>
       </c>
@@ -21262,7 +21312,7 @@
         <v>1030</v>
       </c>
       <c r="B219" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C219" t="s">
         <v>1031</v>
@@ -21330,7 +21380,7 @@
         <v>1033</v>
       </c>
       <c r="B220" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C220" t="s">
         <v>1034</v>
@@ -21393,12 +21443,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1036</v>
       </c>
       <c r="B221" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C221" t="s">
         <v>1037</v>
@@ -21466,7 +21516,7 @@
         <v>1041</v>
       </c>
       <c r="B222" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C222" t="s">
         <v>1042</v>
@@ -21534,7 +21584,7 @@
         <v>1044</v>
       </c>
       <c r="B223" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C223" t="s">
         <v>1045</v>
@@ -21670,7 +21720,7 @@
         <v>1053</v>
       </c>
       <c r="B225" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C225" t="s">
         <v>1054</v>
@@ -21738,7 +21788,7 @@
         <v>1057</v>
       </c>
       <c r="B226" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C226" t="s">
         <v>1058</v>
@@ -21942,7 +21992,7 @@
         <v>1071</v>
       </c>
       <c r="B229" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C229" t="s">
         <v>1072</v>
@@ -22078,7 +22128,7 @@
         <v>1078</v>
       </c>
       <c r="B231" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C231" t="s">
         <v>1079</v>
@@ -22282,7 +22332,7 @@
         <v>1091</v>
       </c>
       <c r="B234" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C234" t="s">
         <v>1092</v>
@@ -22429,11 +22479,11 @@
       <c r="E236" t="s">
         <v>1103</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G236" t="s">
         <v>1104</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1105</v>
       </c>
       <c r="H236" t="s">
         <v>28</v>
@@ -22483,13 +22533,13 @@
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B237" t="s">
         <v>1106</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>1107</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1108</v>
       </c>
       <c r="D237" t="s">
         <v>613</v>
@@ -22498,7 +22548,7 @@
         <v>130</v>
       </c>
       <c r="F237" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G237" t="s">
         <v>43</v>
@@ -22551,22 +22601,22 @@
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B238" t="s">
         <v>1110</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>1111</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1112</v>
       </c>
       <c r="D238" t="s">
         <v>140</v>
       </c>
       <c r="E238" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F238" t="s">
         <v>1113</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1114</v>
       </c>
       <c r="G238" t="s">
         <v>93</v>
@@ -22619,13 +22669,13 @@
     </row>
     <row r="239" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B239" t="s">
         <v>1115</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>1116</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1117</v>
       </c>
       <c r="D239" t="s">
         <v>364</v>
@@ -22634,7 +22684,7 @@
         <v>1089</v>
       </c>
       <c r="F239" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G239" t="s">
         <v>149</v>
@@ -22687,13 +22737,13 @@
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B240" t="s">
         <v>1119</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>1120</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1121</v>
       </c>
       <c r="D240" t="s">
         <v>238</v>
@@ -22702,7 +22752,7 @@
         <v>31</v>
       </c>
       <c r="F240" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G240" t="s">
         <v>27</v>
@@ -22755,13 +22805,13 @@
     </row>
     <row r="241" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B241" t="s">
         <v>1123</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>1124</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1125</v>
       </c>
       <c r="D241" t="s">
         <v>127</v>
@@ -22770,7 +22820,7 @@
         <v>130</v>
       </c>
       <c r="F241" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G241" t="s">
         <v>100</v>
@@ -22823,22 +22873,22 @@
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B242" t="s">
         <v>1127</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>1128</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1129</v>
       </c>
       <c r="D242" t="s">
         <v>208</v>
       </c>
       <c r="E242" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F242" t="s">
         <v>1130</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1131</v>
       </c>
       <c r="G242" t="s">
         <v>299</v>
@@ -22891,13 +22941,13 @@
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C243" t="s">
         <v>1132</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1133</v>
       </c>
       <c r="D243" t="s">
         <v>323</v>
@@ -22906,7 +22956,7 @@
         <v>25</v>
       </c>
       <c r="F243" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G243" t="s">
         <v>231</v>
@@ -22959,22 +23009,22 @@
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B244" t="s">
         <v>1135</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>1136</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1137</v>
       </c>
       <c r="D244" t="s">
         <v>140</v>
       </c>
       <c r="E244" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F244" t="s">
         <v>1138</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1139</v>
       </c>
       <c r="G244" t="s">
         <v>93</v>
@@ -23027,13 +23077,13 @@
     </row>
     <row r="245" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B245" t="s">
         <v>1140</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>1141</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1142</v>
       </c>
       <c r="D245" t="s">
         <v>73</v>
@@ -23042,7 +23092,7 @@
         <v>31</v>
       </c>
       <c r="F245" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G245" t="s">
         <v>27</v>
@@ -23095,22 +23145,22 @@
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C246" t="s">
         <v>1144</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1145</v>
       </c>
       <c r="D246" t="s">
         <v>116</v>
       </c>
       <c r="E246" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F246" t="s">
         <v>1146</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1147</v>
       </c>
       <c r="G246" t="s">
         <v>83</v>
@@ -23163,13 +23213,13 @@
     </row>
     <row r="247" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C247" t="s">
         <v>1148</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1149</v>
       </c>
       <c r="D247" t="s">
         <v>338</v>
@@ -23178,7 +23228,7 @@
         <v>25</v>
       </c>
       <c r="F247" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G247" t="s">
         <v>76</v>
@@ -23231,22 +23281,22 @@
     </row>
     <row r="248" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B248" t="s">
         <v>1151</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>1152</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1153</v>
       </c>
       <c r="D248" t="s">
         <v>116</v>
       </c>
       <c r="E248" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F248" t="s">
         <v>1154</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1155</v>
       </c>
       <c r="G248" t="s">
         <v>118</v>
@@ -23299,13 +23349,13 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C249" t="s">
         <v>1156</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1157</v>
       </c>
       <c r="D249" t="s">
         <v>244</v>
@@ -23314,7 +23364,7 @@
         <v>288</v>
       </c>
       <c r="F249" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G249" t="s">
         <v>76</v>
@@ -23367,13 +23417,13 @@
     </row>
     <row r="250" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B250" t="s">
         <v>1159</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>1160</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1161</v>
       </c>
       <c r="D250" t="s">
         <v>384</v>
@@ -23382,7 +23432,7 @@
         <v>105</v>
       </c>
       <c r="F250" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G250" t="s">
         <v>107</v>
@@ -23435,22 +23485,22 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B251" t="s">
         <v>1163</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>1164</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1165</v>
       </c>
       <c r="D251" t="s">
         <v>364</v>
       </c>
       <c r="E251" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F251" t="s">
         <v>1166</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1167</v>
       </c>
       <c r="G251" t="s">
         <v>36</v>
@@ -23503,13 +23553,13 @@
     </row>
     <row r="252" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C252" t="s">
         <v>1168</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1169</v>
       </c>
       <c r="D252" t="s">
         <v>494</v>
@@ -23518,7 +23568,7 @@
         <v>25</v>
       </c>
       <c r="F252" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G252" t="s">
         <v>56</v>
@@ -23571,13 +23621,13 @@
     </row>
     <row r="253" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B253" t="s">
         <v>1171</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>1172</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1173</v>
       </c>
       <c r="D253" t="s">
         <v>167</v>
@@ -23586,7 +23636,7 @@
         <v>31</v>
       </c>
       <c r="F253" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G253" t="s">
         <v>76</v>
@@ -23639,13 +23689,13 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C254" t="s">
         <v>1175</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1176</v>
       </c>
       <c r="D254" t="s">
         <v>406</v>
@@ -23654,7 +23704,7 @@
         <v>128</v>
       </c>
       <c r="F254" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G254" t="s">
         <v>36</v>
@@ -23707,25 +23757,25 @@
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B255" t="s">
         <v>1178</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>1179</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>1180</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1181</v>
       </c>
       <c r="E255" t="s">
         <v>130</v>
       </c>
       <c r="F255" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G255" t="s">
         <v>1182</v>
-      </c>
-      <c r="G255" t="s">
-        <v>1183</v>
       </c>
       <c r="H255" t="s">
         <v>28</v>
@@ -23775,22 +23825,22 @@
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C256" t="s">
         <v>1184</v>
       </c>
-      <c r="B256" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>1185</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>1186</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>1187</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1188</v>
       </c>
       <c r="G256" t="s">
         <v>83</v>
@@ -23843,13 +23893,13 @@
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C257" t="s">
         <v>1189</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1190</v>
       </c>
       <c r="D257" t="s">
         <v>40</v>
@@ -23858,7 +23908,7 @@
         <v>25</v>
       </c>
       <c r="F257" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G257" t="s">
         <v>124</v>
@@ -23911,13 +23961,13 @@
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C258" t="s">
         <v>1192</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1193</v>
       </c>
       <c r="D258" t="s">
         <v>219</v>
@@ -23926,7 +23976,7 @@
         <v>25</v>
       </c>
       <c r="F258" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G258" t="s">
         <v>274</v>
@@ -23979,13 +24029,13 @@
     </row>
     <row r="259" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B259" t="s">
         <v>1195</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>1196</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1197</v>
       </c>
       <c r="D259" t="s">
         <v>24</v>
@@ -24047,22 +24097,22 @@
     </row>
     <row r="260" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C260" t="s">
         <v>1198</v>
       </c>
-      <c r="B260" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>1199</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1200</v>
       </c>
       <c r="E260" t="s">
         <v>25</v>
       </c>
       <c r="F260" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G260" t="s">
         <v>27</v>
@@ -24115,13 +24165,13 @@
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C261" t="s">
         <v>1202</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1203</v>
       </c>
       <c r="D261" t="s">
         <v>154</v>
@@ -24130,7 +24180,7 @@
         <v>25</v>
       </c>
       <c r="F261" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G261" t="s">
         <v>27</v>
@@ -24183,22 +24233,22 @@
     </row>
     <row r="262" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B262" t="s">
         <v>1205</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>1206</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1207</v>
       </c>
       <c r="D262" t="s">
         <v>277</v>
       </c>
       <c r="E262" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F262" t="s">
         <v>1208</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1209</v>
       </c>
       <c r="G262" t="s">
         <v>107</v>
@@ -24251,13 +24301,13 @@
     </row>
     <row r="263" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C263" t="s">
         <v>1210</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1211</v>
       </c>
       <c r="D263" t="s">
         <v>127</v>
@@ -24266,7 +24316,7 @@
         <v>128</v>
       </c>
       <c r="F263" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G263" t="s">
         <v>221</v>
@@ -24319,22 +24369,22 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B264" t="s">
         <v>1213</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>1214</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>1215</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1216</v>
       </c>
       <c r="E264" t="s">
         <v>31</v>
       </c>
       <c r="F264" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G264" t="s">
         <v>107</v>
@@ -24387,13 +24437,13 @@
     </row>
     <row r="265" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B265" t="s">
         <v>1218</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>1219</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1220</v>
       </c>
       <c r="D265" t="s">
         <v>258</v>
@@ -24402,7 +24452,7 @@
         <v>31</v>
       </c>
       <c r="F265" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G265" t="s">
         <v>93</v>
@@ -24455,13 +24505,13 @@
     </row>
     <row r="266" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B266" t="s">
         <v>1222</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>1223</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1224</v>
       </c>
       <c r="D266" t="s">
         <v>219</v>
@@ -24470,10 +24520,10 @@
         <v>838</v>
       </c>
       <c r="F266" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G266" t="s">
         <v>1225</v>
-      </c>
-      <c r="G266" t="s">
-        <v>1226</v>
       </c>
       <c r="H266" t="s">
         <v>28</v>
@@ -24523,22 +24573,22 @@
     </row>
     <row r="267" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C267" t="s">
         <v>1227</v>
       </c>
-      <c r="B267" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>1228</v>
-      </c>
-      <c r="D267" t="s">
-        <v>1229</v>
       </c>
       <c r="E267" t="s">
         <v>25</v>
       </c>
       <c r="F267" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G267" t="s">
         <v>221</v>
@@ -24591,22 +24641,22 @@
     </row>
     <row r="268" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C268" t="s">
         <v>1231</v>
       </c>
-      <c r="B268" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>1232</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1233</v>
       </c>
       <c r="E268" t="s">
         <v>25</v>
       </c>
       <c r="F268" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G268" t="s">
         <v>93</v>
@@ -24659,13 +24709,13 @@
     </row>
     <row r="269" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B269" t="s">
         <v>1235</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>1236</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1237</v>
       </c>
       <c r="D269" t="s">
         <v>140</v>
@@ -24674,7 +24724,7 @@
         <v>31</v>
       </c>
       <c r="F269" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G269" t="s">
         <v>56</v>
@@ -24727,13 +24777,13 @@
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C270" t="s">
         <v>1239</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1240</v>
       </c>
       <c r="D270" t="s">
         <v>338</v>
@@ -24742,7 +24792,7 @@
         <v>25</v>
       </c>
       <c r="F270" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G270" t="s">
         <v>48</v>
@@ -24795,13 +24845,13 @@
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C271" t="s">
         <v>1242</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1243</v>
       </c>
       <c r="D271" t="s">
         <v>1055</v>
@@ -24810,7 +24860,7 @@
         <v>25</v>
       </c>
       <c r="F271" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G271" t="s">
         <v>221</v>
@@ -24863,25 +24913,25 @@
     </row>
     <row r="272" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C272" t="s">
         <v>1245</v>
       </c>
-      <c r="B272" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>1246</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>1247</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>1248</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
         <v>1249</v>
-      </c>
-      <c r="G272" t="s">
-        <v>1250</v>
       </c>
       <c r="H272" t="s">
         <v>28</v>
@@ -24931,13 +24981,13 @@
     </row>
     <row r="273" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B273" t="s">
         <v>1251</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>1252</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1253</v>
       </c>
       <c r="D273" t="s">
         <v>154</v>
@@ -24946,7 +24996,7 @@
         <v>31</v>
       </c>
       <c r="F273" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G273" t="s">
         <v>27</v>
@@ -24999,13 +25049,13 @@
     </row>
     <row r="274" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B274" t="s">
         <v>1255</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>1256</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1257</v>
       </c>
       <c r="D274" t="s">
         <v>501</v>
@@ -25014,7 +25064,7 @@
         <v>31</v>
       </c>
       <c r="F274" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G274" t="s">
         <v>100</v>
@@ -25067,13 +25117,13 @@
     </row>
     <row r="275" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B275" t="s">
         <v>1259</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>1260</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1261</v>
       </c>
       <c r="D275" t="s">
         <v>116</v>
@@ -25135,22 +25185,22 @@
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B276" t="s">
         <v>1262</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>1263</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>1264</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>1265</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>1266</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1267</v>
       </c>
       <c r="G276" t="s">
         <v>27</v>
@@ -25203,22 +25253,22 @@
     </row>
     <row r="277" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B277" t="s">
         <v>1268</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>1269</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1270</v>
       </c>
       <c r="D277" t="s">
         <v>674</v>
       </c>
       <c r="E277" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F277" t="s">
         <v>1271</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1272</v>
       </c>
       <c r="G277" t="s">
         <v>56</v>
@@ -25271,13 +25321,13 @@
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B278" t="s">
         <v>1273</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>1274</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1275</v>
       </c>
       <c r="D278" t="s">
         <v>674</v>
@@ -25286,7 +25336,7 @@
         <v>360</v>
       </c>
       <c r="F278" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G278" t="s">
         <v>56</v>
@@ -25339,13 +25389,13 @@
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B279" t="s">
         <v>1277</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>1278</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1279</v>
       </c>
       <c r="D279" t="s">
         <v>162</v>
@@ -25354,7 +25404,7 @@
         <v>360</v>
       </c>
       <c r="F279" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G279" t="s">
         <v>124</v>
@@ -25407,13 +25457,13 @@
     </row>
     <row r="280" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C280" t="s">
         <v>1281</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1282</v>
       </c>
       <c r="D280" t="s">
         <v>154</v>
@@ -25422,7 +25472,7 @@
         <v>25</v>
       </c>
       <c r="F280" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G280" t="s">
         <v>274</v>
@@ -25475,22 +25525,22 @@
     </row>
     <row r="281" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C281" t="s">
         <v>1284</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1285</v>
       </c>
       <c r="D281" t="s">
         <v>219</v>
       </c>
       <c r="E281" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F281" t="s">
         <v>1286</v>
-      </c>
-      <c r="F281" t="s">
-        <v>1287</v>
       </c>
       <c r="G281" t="s">
         <v>107</v>
@@ -25543,22 +25593,22 @@
     </row>
     <row r="282" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B282" t="s">
         <v>1288</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>1289</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1290</v>
       </c>
       <c r="D282" t="s">
         <v>219</v>
       </c>
       <c r="E282" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F282" t="s">
         <v>1291</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1292</v>
       </c>
       <c r="G282" t="s">
         <v>27</v>
@@ -25611,22 +25661,22 @@
     </row>
     <row r="283" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B283" t="s">
         <v>1293</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>1294</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>1295</v>
       </c>
-      <c r="D283" t="s">
+      <c r="E283" t="s">
         <v>1296</v>
       </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
         <v>1297</v>
-      </c>
-      <c r="F283" t="s">
-        <v>1298</v>
       </c>
       <c r="G283" t="s">
         <v>195</v>
@@ -25679,22 +25729,22 @@
     </row>
     <row r="284" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C284" t="s">
         <v>1299</v>
       </c>
-      <c r="B284" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>1300</v>
-      </c>
-      <c r="D284" t="s">
-        <v>1301</v>
       </c>
       <c r="E284" t="s">
         <v>25</v>
       </c>
       <c r="F284" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G284" t="s">
         <v>43</v>
@@ -25747,22 +25797,22 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B285" t="s">
         <v>1303</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>1304</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1305</v>
       </c>
       <c r="D285" t="s">
         <v>617</v>
       </c>
       <c r="E285" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F285" t="s">
         <v>1306</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1307</v>
       </c>
       <c r="G285" t="s">
         <v>346</v>
@@ -25815,13 +25865,13 @@
     </row>
     <row r="286" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B286" t="s">
         <v>1308</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>1309</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1310</v>
       </c>
       <c r="D286" t="s">
         <v>244</v>
@@ -25830,7 +25880,7 @@
         <v>539</v>
       </c>
       <c r="F286" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G286" t="s">
         <v>299</v>
@@ -25883,22 +25933,22 @@
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B287" t="s">
         <v>1312</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>1313</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>1314</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1315</v>
       </c>
       <c r="E287" t="s">
         <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G287" t="s">
         <v>76</v>
@@ -25951,22 +26001,22 @@
     </row>
     <row r="288" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B288" t="s">
         <v>1317</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>1318</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1319</v>
       </c>
       <c r="D288" t="s">
         <v>406</v>
       </c>
       <c r="E288" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F288" t="s">
         <v>1320</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1321</v>
       </c>
       <c r="G288" t="s">
         <v>83</v>
@@ -26019,13 +26069,13 @@
     </row>
     <row r="289" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B289" t="s">
         <v>1322</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>1323</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1324</v>
       </c>
       <c r="D289" t="s">
         <v>708</v>
@@ -26034,7 +26084,7 @@
         <v>443</v>
       </c>
       <c r="F289" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G289" t="s">
         <v>240</v>
@@ -26087,22 +26137,22 @@
     </row>
     <row r="290" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B290" t="s">
         <v>1326</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>1327</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1328</v>
       </c>
       <c r="D290" t="s">
         <v>134</v>
       </c>
       <c r="E290" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F290" t="s">
         <v>1329</v>
-      </c>
-      <c r="F290" t="s">
-        <v>1330</v>
       </c>
       <c r="G290" t="s">
         <v>36</v>
@@ -26155,22 +26205,22 @@
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C291" t="s">
         <v>1331</v>
       </c>
-      <c r="B291" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>1332</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1333</v>
       </c>
       <c r="E291" t="s">
         <v>25</v>
       </c>
       <c r="F291" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G291" t="s">
         <v>48</v>
@@ -26223,13 +26273,13 @@
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C292" t="s">
         <v>1335</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1336</v>
       </c>
       <c r="D292" t="s">
         <v>406</v>
@@ -26238,7 +26288,7 @@
         <v>128</v>
       </c>
       <c r="F292" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G292" t="s">
         <v>76</v>
@@ -26291,13 +26341,13 @@
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B293" t="s">
         <v>1338</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>1339</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1340</v>
       </c>
       <c r="D293" t="s">
         <v>116</v>
@@ -26306,7 +26356,7 @@
         <v>31</v>
       </c>
       <c r="F293" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G293" t="s">
         <v>211</v>
@@ -26359,22 +26409,22 @@
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B294" t="s">
         <v>1342</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>1343</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1344</v>
       </c>
       <c r="D294" t="s">
         <v>284</v>
       </c>
       <c r="E294" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F294" t="s">
         <v>1345</v>
-      </c>
-      <c r="F294" t="s">
-        <v>1346</v>
       </c>
       <c r="G294" t="s">
         <v>142</v>
@@ -26427,22 +26477,22 @@
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B295" t="s">
         <v>1347</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>1348</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>1349</v>
       </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>1350</v>
       </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>1351</v>
-      </c>
-      <c r="F295" t="s">
-        <v>1352</v>
       </c>
       <c r="G295" t="s">
         <v>27</v>
@@ -26495,13 +26545,13 @@
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C296" t="s">
         <v>1353</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1354</v>
       </c>
       <c r="D296" t="s">
         <v>284</v>
@@ -26510,7 +26560,7 @@
         <v>128</v>
       </c>
       <c r="F296" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G296" t="s">
         <v>27</v>
@@ -26563,13 +26613,13 @@
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B297" t="s">
         <v>1356</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>1357</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1358</v>
       </c>
       <c r="D297" t="s">
         <v>452</v>
@@ -26578,7 +26628,7 @@
         <v>31</v>
       </c>
       <c r="F297" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G297" t="s">
         <v>93</v>
@@ -26631,22 +26681,22 @@
     </row>
     <row r="298" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B298" t="s">
         <v>1360</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>1361</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1362</v>
       </c>
       <c r="D298" t="s">
         <v>140</v>
       </c>
       <c r="E298" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F298" t="s">
         <v>1363</v>
-      </c>
-      <c r="F298" t="s">
-        <v>1364</v>
       </c>
       <c r="G298" t="s">
         <v>43</v>
@@ -26699,22 +26749,22 @@
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C299" t="s">
         <v>1365</v>
       </c>
-      <c r="B299" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1366</v>
-      </c>
       <c r="D299" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E299" t="s">
         <v>25</v>
       </c>
       <c r="F299" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G299" t="s">
         <v>231</v>
@@ -26767,13 +26817,13 @@
     </row>
     <row r="300" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C300" t="s">
         <v>1368</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1369</v>
       </c>
       <c r="D300" t="s">
         <v>338</v>
@@ -26782,7 +26832,7 @@
         <v>25</v>
       </c>
       <c r="F300" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G300" t="s">
         <v>124</v>
@@ -26835,13 +26885,13 @@
     </row>
     <row r="301" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C301" t="s">
         <v>1371</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1372</v>
       </c>
       <c r="D301" t="s">
         <v>284</v>
@@ -26850,7 +26900,7 @@
         <v>128</v>
       </c>
       <c r="F301" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G301" t="s">
         <v>346</v>
@@ -26903,13 +26953,13 @@
     </row>
     <row r="302" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C302" t="s">
         <v>1374</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1375</v>
       </c>
       <c r="D302" t="s">
         <v>323</v>
@@ -26918,7 +26968,7 @@
         <v>25</v>
       </c>
       <c r="F302" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G302" t="s">
         <v>610</v>
@@ -26971,13 +27021,13 @@
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C303" t="s">
         <v>1377</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1378</v>
       </c>
       <c r="D303" t="s">
         <v>127</v>
@@ -26986,7 +27036,7 @@
         <v>128</v>
       </c>
       <c r="F303" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G303" t="s">
         <v>48</v>
@@ -27039,22 +27089,22 @@
     </row>
     <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B304" t="s">
         <v>1380</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>1381</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E304" t="s">
         <v>1382</v>
       </c>
-      <c r="D304" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E304" t="s">
+      <c r="F304" t="s">
         <v>1383</v>
-      </c>
-      <c r="F304" t="s">
-        <v>1384</v>
       </c>
       <c r="G304" t="s">
         <v>107</v>
@@ -27107,22 +27157,22 @@
     </row>
     <row r="305" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B305" t="s">
         <v>1385</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>1386</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>1387</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1388</v>
       </c>
       <c r="E305" t="s">
         <v>61</v>
       </c>
       <c r="F305" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G305" t="s">
         <v>48</v>
@@ -27175,13 +27225,13 @@
     </row>
     <row r="306" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B306" t="s">
         <v>1390</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>1391</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1392</v>
       </c>
       <c r="D306" t="s">
         <v>669</v>
@@ -27190,7 +27240,7 @@
         <v>659</v>
       </c>
       <c r="F306" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G306" t="s">
         <v>56</v>
@@ -27243,13 +27293,13 @@
     </row>
     <row r="307" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B307" t="s">
         <v>1394</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>1395</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1396</v>
       </c>
       <c r="D307" t="s">
         <v>140</v>
@@ -27311,13 +27361,13 @@
     </row>
     <row r="308" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B308" t="s">
         <v>1397</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>1398</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1399</v>
       </c>
       <c r="D308" t="s">
         <v>127</v>
@@ -27326,7 +27376,7 @@
         <v>130</v>
       </c>
       <c r="F308" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G308" t="s">
         <v>48</v>
@@ -27379,13 +27429,13 @@
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C309" t="s">
         <v>1401</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1402</v>
       </c>
       <c r="D309" t="s">
         <v>1046</v>
@@ -27394,7 +27444,7 @@
         <v>128</v>
       </c>
       <c r="F309" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G309" t="s">
         <v>351</v>
@@ -27447,22 +27497,22 @@
     </row>
     <row r="310" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B310" t="s">
         <v>1404</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>1405</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>1406</v>
       </c>
-      <c r="D310" t="s">
+      <c r="E310" t="s">
         <v>1407</v>
       </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
         <v>1408</v>
-      </c>
-      <c r="F310" t="s">
-        <v>1409</v>
       </c>
       <c r="G310" t="s">
         <v>83</v>
@@ -27515,13 +27565,13 @@
     </row>
     <row r="311" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C311" t="s">
         <v>1410</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1411</v>
       </c>
       <c r="D311" t="s">
         <v>249</v>
@@ -27530,10 +27580,10 @@
         <v>25</v>
       </c>
       <c r="F311" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G311" t="s">
         <v>1412</v>
-      </c>
-      <c r="G311" t="s">
-        <v>1413</v>
       </c>
       <c r="H311" t="s">
         <v>28</v>
@@ -27583,22 +27633,22 @@
     </row>
     <row r="312" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B312" t="s">
         <v>1414</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>1415</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1416</v>
       </c>
       <c r="D312" t="s">
         <v>140</v>
       </c>
       <c r="E312" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F312" t="s">
         <v>1417</v>
-      </c>
-      <c r="F312" t="s">
-        <v>1418</v>
       </c>
       <c r="G312" t="s">
         <v>470</v>
@@ -27651,22 +27701,22 @@
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C313" t="s">
         <v>1419</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1420</v>
       </c>
       <c r="D313" t="s">
         <v>244</v>
       </c>
       <c r="E313" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F313" t="s">
         <v>1421</v>
-      </c>
-      <c r="F313" t="s">
-        <v>1422</v>
       </c>
       <c r="G313" t="s">
         <v>36</v>
@@ -27719,22 +27769,22 @@
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B314" t="s">
         <v>1423</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
         <v>1424</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1425</v>
       </c>
       <c r="D314" t="s">
         <v>219</v>
       </c>
       <c r="E314" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F314" t="s">
         <v>1426</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1427</v>
       </c>
       <c r="G314" t="s">
         <v>36</v>
@@ -27787,13 +27837,13 @@
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B315" t="s">
         <v>1428</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>1429</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1430</v>
       </c>
       <c r="D315" t="s">
         <v>945</v>
@@ -27802,7 +27852,7 @@
         <v>31</v>
       </c>
       <c r="F315" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G315" t="s">
         <v>107</v>
@@ -27855,22 +27905,22 @@
     </row>
     <row r="316" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C316" t="s">
         <v>1432</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1433</v>
       </c>
       <c r="D316" t="s">
         <v>34</v>
       </c>
       <c r="E316" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F316" t="s">
         <v>1434</v>
-      </c>
-      <c r="F316" t="s">
-        <v>1435</v>
       </c>
       <c r="G316" t="s">
         <v>107</v>
@@ -27923,13 +27973,13 @@
     </row>
     <row r="317" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B317" t="s">
         <v>1436</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>1437</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1438</v>
       </c>
       <c r="D317" t="s">
         <v>140</v>
@@ -27938,7 +27988,7 @@
         <v>31</v>
       </c>
       <c r="F317" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G317" t="s">
         <v>269</v>
@@ -27991,13 +28041,13 @@
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C318" t="s">
         <v>1440</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1441</v>
       </c>
       <c r="D318" t="s">
         <v>244</v>
@@ -28006,7 +28056,7 @@
         <v>25</v>
       </c>
       <c r="F318" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G318" t="s">
         <v>231</v>
@@ -28059,13 +28109,13 @@
     </row>
     <row r="319" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B319" t="s">
         <v>1443</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>1444</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1445</v>
       </c>
       <c r="D319" t="s">
         <v>364</v>
@@ -28074,7 +28124,7 @@
         <v>31</v>
       </c>
       <c r="F319" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G319" t="s">
         <v>107</v>
@@ -28125,24 +28175,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:22" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B320" t="s">
         <v>1447</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>1448</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1449</v>
       </c>
       <c r="D320" t="s">
         <v>617</v>
       </c>
       <c r="E320" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F320" t="s">
         <v>1450</v>
-      </c>
-      <c r="F320" t="s">
-        <v>1451</v>
       </c>
       <c r="G320" t="s">
         <v>27</v>
@@ -28195,13 +28245,13 @@
     </row>
     <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C321" t="s">
         <v>1452</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1453</v>
       </c>
       <c r="D321" t="s">
         <v>127</v>
@@ -28210,7 +28260,7 @@
         <v>128</v>
       </c>
       <c r="F321" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G321" t="s">
         <v>48</v>
@@ -28263,13 +28313,13 @@
     </row>
     <row r="322" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C322" t="s">
         <v>1455</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1456</v>
       </c>
       <c r="D322" t="s">
         <v>219</v>
@@ -28278,7 +28328,7 @@
         <v>25</v>
       </c>
       <c r="F322" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G322" t="s">
         <v>274</v>
@@ -28331,22 +28381,22 @@
     </row>
     <row r="323" spans="1:22" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B323" t="s">
         <v>1458</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>1459</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>1460</v>
       </c>
-      <c r="D323" t="s">
+      <c r="E323" t="s">
         <v>1461</v>
       </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
         <v>1462</v>
-      </c>
-      <c r="F323" t="s">
-        <v>1463</v>
       </c>
       <c r="G323" t="s">
         <v>195</v>
@@ -28399,22 +28449,22 @@
     </row>
     <row r="324" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B324" t="s">
         <v>1464</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>1465</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>1466</v>
       </c>
-      <c r="D324" t="s">
+      <c r="E324" t="s">
         <v>1467</v>
       </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
         <v>1468</v>
-      </c>
-      <c r="F324" t="s">
-        <v>1469</v>
       </c>
       <c r="G324" t="s">
         <v>195</v>
@@ -28467,13 +28517,13 @@
     </row>
     <row r="325" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C325" t="s">
         <v>1470</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1471</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -28482,7 +28532,7 @@
         <v>288</v>
       </c>
       <c r="F325" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G325" t="s">
         <v>76</v>
@@ -28535,22 +28585,22 @@
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C326" t="s">
         <v>1473</v>
       </c>
-      <c r="B326" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>1474</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1475</v>
       </c>
       <c r="E326" t="s">
         <v>25</v>
       </c>
       <c r="F326" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G326" t="s">
         <v>351</v>
@@ -28603,22 +28653,22 @@
     </row>
     <row r="327" spans="1:22" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B327" t="s">
         <v>1477</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>1478</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>1479</v>
       </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>1480</v>
       </c>
-      <c r="E327" t="s">
+      <c r="F327" t="s">
         <v>1481</v>
-      </c>
-      <c r="F327" t="s">
-        <v>1482</v>
       </c>
       <c r="G327" t="s">
         <v>100</v>
@@ -28671,13 +28721,13 @@
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B328" t="s">
         <v>1483</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>1484</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1485</v>
       </c>
       <c r="D328" t="s">
         <v>140</v>
@@ -28686,7 +28736,7 @@
         <v>187</v>
       </c>
       <c r="F328" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
@@ -28739,13 +28789,13 @@
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B329" t="s">
         <v>1487</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>1488</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1489</v>
       </c>
       <c r="D329" t="s">
         <v>116</v>
@@ -28754,7 +28804,7 @@
         <v>54</v>
       </c>
       <c r="F329" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G329" t="s">
         <v>100</v>
@@ -28805,12 +28855,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="330" spans="1:22" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C330" t="s">
         <v>1491</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1492</v>
       </c>
       <c r="D330" t="s">
         <v>384</v>
@@ -28819,7 +28872,7 @@
         <v>288</v>
       </c>
       <c r="F330" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G330" t="s">
         <v>76</v>
@@ -28872,13 +28925,13 @@
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B331" t="s">
         <v>1494</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>1495</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1496</v>
       </c>
       <c r="D331" t="s">
         <v>613</v>
@@ -28887,7 +28940,7 @@
         <v>659</v>
       </c>
       <c r="F331" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G331" t="s">
         <v>346</v>
@@ -28940,19 +28993,19 @@
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C332" t="s">
         <v>1498</v>
       </c>
-      <c r="B332" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C332" t="s">
+      <c r="E332" t="s">
         <v>1499</v>
       </c>
-      <c r="E332" t="s">
+      <c r="F332" t="s">
         <v>1500</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1501</v>
       </c>
       <c r="G332" t="s">
         <v>76</v>
@@ -29005,13 +29058,13 @@
     </row>
     <row r="333" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B333" t="s">
         <v>1502</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>1503</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1504</v>
       </c>
       <c r="D333" t="s">
         <v>284</v>
@@ -29020,7 +29073,7 @@
         <v>130</v>
       </c>
       <c r="F333" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G333" t="s">
         <v>27</v>
@@ -29073,22 +29126,22 @@
     </row>
     <row r="334" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B334" t="s">
         <v>1506</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>1507</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1508</v>
       </c>
       <c r="D334" t="s">
         <v>219</v>
       </c>
       <c r="E334" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F334" t="s">
         <v>1509</v>
-      </c>
-      <c r="F334" t="s">
-        <v>1510</v>
       </c>
       <c r="G334" t="s">
         <v>107</v>
@@ -29141,22 +29194,22 @@
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C335" t="s">
         <v>1511</v>
       </c>
-      <c r="B335" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>1512</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1513</v>
       </c>
       <c r="E335" t="s">
         <v>25</v>
       </c>
       <c r="F335" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G335" t="s">
         <v>686</v>
@@ -29209,13 +29262,13 @@
     </row>
     <row r="336" spans="1:22" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B336" t="s">
         <v>1515</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
         <v>1516</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1517</v>
       </c>
       <c r="D336" t="s">
         <v>140</v>
@@ -29224,7 +29277,7 @@
         <v>310</v>
       </c>
       <c r="F336" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G336" t="s">
         <v>470</v>
@@ -29277,13 +29330,13 @@
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B337" t="s">
         <v>1519</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>1520</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1521</v>
       </c>
       <c r="D337" t="s">
         <v>575</v>
@@ -29292,7 +29345,7 @@
         <v>940</v>
       </c>
       <c r="F337" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G337" t="s">
         <v>93</v>
@@ -29345,13 +29398,13 @@
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B338" t="s">
         <v>1523</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>1524</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1525</v>
       </c>
       <c r="D338" t="s">
         <v>384</v>
@@ -29360,7 +29413,7 @@
         <v>395</v>
       </c>
       <c r="F338" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G338" t="s">
         <v>240</v>
@@ -29413,13 +29466,13 @@
     </row>
     <row r="339" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B339" t="s">
         <v>1527</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>1528</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1529</v>
       </c>
       <c r="D339" t="s">
         <v>284</v>
@@ -29428,7 +29481,7 @@
         <v>130</v>
       </c>
       <c r="F339" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G339" t="s">
         <v>470</v>
@@ -29481,22 +29534,22 @@
     </row>
     <row r="340" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B340" t="s">
         <v>1530</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
         <v>1531</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E340" t="s">
         <v>1532</v>
       </c>
-      <c r="D340" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E340" t="s">
+      <c r="F340" t="s">
         <v>1533</v>
-      </c>
-      <c r="F340" t="s">
-        <v>1534</v>
       </c>
       <c r="G340" t="s">
         <v>36</v>
@@ -29549,13 +29602,13 @@
     </row>
     <row r="341" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B341" t="s">
         <v>1535</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>1536</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1537</v>
       </c>
       <c r="D341" t="s">
         <v>127</v>
@@ -29564,7 +29617,7 @@
         <v>130</v>
       </c>
       <c r="F341" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="G341" t="s">
         <v>27</v>
@@ -29617,13 +29670,13 @@
     </row>
     <row r="342" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B342" t="s">
         <v>1539</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>1540</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1541</v>
       </c>
       <c r="D342" t="s">
         <v>364</v>
@@ -29632,7 +29685,7 @@
         <v>31</v>
       </c>
       <c r="F342" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G342" t="s">
         <v>240</v>
@@ -29685,13 +29738,13 @@
     </row>
     <row r="343" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B343" t="s">
         <v>1543</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>1544</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1545</v>
       </c>
       <c r="D343" t="s">
         <v>186</v>
@@ -29700,7 +29753,7 @@
         <v>31</v>
       </c>
       <c r="F343" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G343" t="s">
         <v>211</v>
@@ -29753,13 +29806,13 @@
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C344" t="s">
         <v>1547</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1548</v>
       </c>
       <c r="D344" t="s">
         <v>284</v>
@@ -29768,7 +29821,7 @@
         <v>128</v>
       </c>
       <c r="F344" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G344" t="s">
         <v>48</v>
@@ -29821,13 +29874,13 @@
     </row>
     <row r="345" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B345" t="s">
         <v>1550</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>1551</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1552</v>
       </c>
       <c r="D345" t="s">
         <v>406</v>
@@ -29836,7 +29889,7 @@
         <v>130</v>
       </c>
       <c r="F345" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G345" t="s">
         <v>43</v>
@@ -29889,13 +29942,13 @@
     </row>
     <row r="346" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B346" t="s">
         <v>1554</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>1555</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1556</v>
       </c>
       <c r="D346" t="s">
         <v>1046</v>
@@ -29904,7 +29957,7 @@
         <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G346" t="s">
         <v>211</v>
@@ -29957,22 +30010,22 @@
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B347" t="s">
         <v>1558</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>1559</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>1560</v>
       </c>
-      <c r="D347" t="s">
+      <c r="E347" t="s">
         <v>1561</v>
       </c>
-      <c r="E347" t="s">
+      <c r="F347" t="s">
         <v>1562</v>
-      </c>
-      <c r="F347" t="s">
-        <v>1563</v>
       </c>
       <c r="G347" t="s">
         <v>142</v>
@@ -30025,13 +30078,13 @@
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C348" t="s">
         <v>1564</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1565</v>
       </c>
       <c r="D348" t="s">
         <v>219</v>
@@ -30040,7 +30093,7 @@
         <v>25</v>
       </c>
       <c r="F348" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G348" t="s">
         <v>100</v>
@@ -30093,13 +30146,13 @@
     </row>
     <row r="349" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B349" t="s">
         <v>1567</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>1568</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1569</v>
       </c>
       <c r="D349" t="s">
         <v>277</v>
@@ -30108,7 +30161,7 @@
         <v>539</v>
       </c>
       <c r="F349" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G349" t="s">
         <v>100</v>
@@ -30161,13 +30214,13 @@
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B350" t="s">
         <v>1571</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
         <v>1572</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1573</v>
       </c>
       <c r="D350" t="s">
         <v>277</v>
@@ -30176,7 +30229,7 @@
         <v>539</v>
       </c>
       <c r="F350" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G350" t="s">
         <v>43</v>
@@ -30229,22 +30282,22 @@
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C351" t="s">
         <v>1575</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1576</v>
       </c>
       <c r="D351" t="s">
         <v>244</v>
       </c>
       <c r="E351" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F351" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G351" t="s">
         <v>36</v>
@@ -30297,22 +30350,22 @@
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B352" t="s">
         <v>1578</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
         <v>1579</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1580</v>
       </c>
       <c r="D352" t="s">
         <v>154</v>
       </c>
       <c r="E352" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F352" t="s">
         <v>1581</v>
-      </c>
-      <c r="F352" t="s">
-        <v>1582</v>
       </c>
       <c r="G352" t="s">
         <v>231</v>
@@ -30365,13 +30418,13 @@
     </row>
     <row r="353" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B353" t="s">
         <v>1583</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
         <v>1584</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1585</v>
       </c>
       <c r="D353" t="s">
         <v>669</v>
@@ -30380,7 +30433,7 @@
         <v>130</v>
       </c>
       <c r="F353" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G353" t="s">
         <v>124</v>
@@ -30433,13 +30486,13 @@
     </row>
     <row r="354" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B354" t="s">
         <v>1587</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
         <v>1588</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1589</v>
       </c>
       <c r="D354" t="s">
         <v>364</v>
@@ -30448,7 +30501,7 @@
         <v>31</v>
       </c>
       <c r="F354" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G354" t="s">
         <v>36</v>
@@ -30501,13 +30554,13 @@
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B355" t="s">
         <v>1591</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>1592</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1593</v>
       </c>
       <c r="D355" t="s">
         <v>284</v>
@@ -30516,7 +30569,7 @@
         <v>130</v>
       </c>
       <c r="F355" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G355" t="s">
         <v>124</v>
@@ -30569,22 +30622,22 @@
     </row>
     <row r="356" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B356" t="s">
         <v>1595</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>1596</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1597</v>
       </c>
       <c r="D356" t="s">
         <v>1097</v>
       </c>
       <c r="E356" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F356" t="s">
         <v>1598</v>
-      </c>
-      <c r="F356" t="s">
-        <v>1599</v>
       </c>
       <c r="G356" t="s">
         <v>69</v>
@@ -30637,13 +30690,13 @@
     </row>
     <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B357" t="s">
         <v>1600</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>1601</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1602</v>
       </c>
       <c r="D357" t="s">
         <v>1055</v>
@@ -30652,7 +30705,7 @@
         <v>539</v>
       </c>
       <c r="F357" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G357" t="s">
         <v>211</v>
@@ -30705,22 +30758,22 @@
     </row>
     <row r="358" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B358" t="s">
         <v>1604</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>1605</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1606</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1607</v>
       </c>
       <c r="E358" t="s">
         <v>539</v>
       </c>
       <c r="F358" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G358" t="s">
         <v>274</v>
@@ -30773,22 +30826,22 @@
     </row>
     <row r="359" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C359" t="s">
         <v>1609</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1610</v>
       </c>
       <c r="D359" t="s">
         <v>617</v>
       </c>
       <c r="E359" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F359" t="s">
         <v>1611</v>
-      </c>
-      <c r="F359" t="s">
-        <v>1612</v>
       </c>
       <c r="G359" t="s">
         <v>56</v>
@@ -30841,22 +30894,22 @@
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B360" t="s">
         <v>1613</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
         <v>1614</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1615</v>
       </c>
       <c r="D360" t="s">
         <v>116</v>
       </c>
       <c r="E360" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F360" t="s">
         <v>1616</v>
-      </c>
-      <c r="F360" t="s">
-        <v>1617</v>
       </c>
       <c r="G360" t="s">
         <v>27</v>
@@ -30909,13 +30962,13 @@
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B361" t="s">
         <v>1618</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>1619</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1620</v>
       </c>
       <c r="D361" t="s">
         <v>249</v>
@@ -30924,10 +30977,10 @@
         <v>31</v>
       </c>
       <c r="F361" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G361" t="s">
         <v>1621</v>
-      </c>
-      <c r="G361" t="s">
-        <v>1622</v>
       </c>
       <c r="H361" t="s">
         <v>28</v>
@@ -30977,13 +31030,13 @@
     </row>
     <row r="362" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B362" t="s">
         <v>1623</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>1624</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1625</v>
       </c>
       <c r="D362" t="s">
         <v>613</v>
@@ -30992,7 +31045,7 @@
         <v>130</v>
       </c>
       <c r="F362" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G362" t="s">
         <v>335</v>
@@ -31045,13 +31098,13 @@
     </row>
     <row r="363" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B363" t="s">
         <v>1627</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>1628</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1629</v>
       </c>
       <c r="D363" t="s">
         <v>284</v>
@@ -31060,7 +31113,7 @@
         <v>130</v>
       </c>
       <c r="F363" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G363" t="s">
         <v>142</v>
@@ -31113,22 +31166,22 @@
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B364" t="s">
         <v>1631</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>1632</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1633</v>
       </c>
       <c r="D364" t="s">
         <v>40</v>
       </c>
       <c r="E364" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F364" t="s">
         <v>1634</v>
-      </c>
-      <c r="F364" t="s">
-        <v>1635</v>
       </c>
       <c r="G364" t="s">
         <v>93</v>
@@ -31181,13 +31234,13 @@
     </row>
     <row r="365" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B365" t="s">
         <v>1636</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>1637</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1638</v>
       </c>
       <c r="D365" t="s">
         <v>284</v>
@@ -31196,7 +31249,7 @@
         <v>130</v>
       </c>
       <c r="F365" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G365" t="s">
         <v>48</v>
@@ -31249,13 +31302,13 @@
     </row>
     <row r="366" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B366" t="s">
         <v>1640</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>1641</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1642</v>
       </c>
       <c r="D366" t="s">
         <v>284</v>
@@ -31264,7 +31317,7 @@
         <v>130</v>
       </c>
       <c r="F366" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G366" t="s">
         <v>48</v>
@@ -31317,22 +31370,22 @@
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C367" t="s">
         <v>1644</v>
       </c>
-      <c r="B367" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
         <v>1645</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1646</v>
       </c>
       <c r="E367" t="s">
         <v>25</v>
       </c>
       <c r="F367" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G367" t="s">
         <v>107</v>
@@ -31385,22 +31438,22 @@
     </row>
     <row r="368" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C368" t="s">
         <v>1648</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1649</v>
       </c>
       <c r="D368" t="s">
         <v>73</v>
       </c>
       <c r="E368" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F368" t="s">
         <v>1650</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1651</v>
       </c>
       <c r="G368" t="s">
         <v>93</v>
@@ -31453,22 +31506,22 @@
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B369" t="s">
         <v>1652</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>1653</v>
       </c>
-      <c r="C369" t="s">
+      <c r="D369" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E369" t="s">
         <v>1654</v>
       </c>
-      <c r="D369" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E369" t="s">
+      <c r="F369" t="s">
         <v>1655</v>
-      </c>
-      <c r="F369" t="s">
-        <v>1656</v>
       </c>
       <c r="G369" t="s">
         <v>76</v>
@@ -31521,13 +31574,13 @@
     </row>
     <row r="370" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C370" t="s">
         <v>1657</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1658</v>
       </c>
       <c r="D370" t="s">
         <v>372</v>
@@ -31536,7 +31589,7 @@
         <v>25</v>
       </c>
       <c r="F370" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G370" t="s">
         <v>48</v>
@@ -31589,22 +31642,22 @@
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B371" t="s">
         <v>1660</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>1661</v>
       </c>
-      <c r="C371" t="s">
+      <c r="D371" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E371" t="s">
         <v>1662</v>
       </c>
-      <c r="D371" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E371" t="s">
+      <c r="F371" t="s">
         <v>1663</v>
-      </c>
-      <c r="F371" t="s">
-        <v>1664</v>
       </c>
       <c r="G371" t="s">
         <v>63</v>
@@ -31657,22 +31710,22 @@
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B372" t="s">
         <v>1665</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>1666</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1667</v>
       </c>
       <c r="D372" t="s">
         <v>208</v>
       </c>
       <c r="E372" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F372" t="s">
         <v>1668</v>
-      </c>
-      <c r="F372" t="s">
-        <v>1669</v>
       </c>
       <c r="G372" t="s">
         <v>142</v>
@@ -31725,22 +31778,22 @@
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B373" t="s">
         <v>1670</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
         <v>1671</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
         <v>1672</v>
       </c>
-      <c r="D373" t="s">
+      <c r="E373" t="s">
         <v>1673</v>
       </c>
-      <c r="E373" t="s">
+      <c r="F373" t="s">
         <v>1674</v>
-      </c>
-      <c r="F373" t="s">
-        <v>1675</v>
       </c>
       <c r="G373" t="s">
         <v>231</v>
@@ -31793,22 +31846,22 @@
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B374" t="s">
         <v>1676</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" t="s">
         <v>1677</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1678</v>
       </c>
       <c r="D374" t="s">
         <v>945</v>
       </c>
       <c r="E374" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F374" t="s">
         <v>1679</v>
-      </c>
-      <c r="F374" t="s">
-        <v>1680</v>
       </c>
       <c r="G374" t="s">
         <v>274</v>
@@ -31869,7 +31922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -31890,40 +31943,40 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G1" t="s">
         <v>1872</v>
       </c>
-      <c r="B1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1685</v>
       </c>
-      <c r="G1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1686</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1687</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1688</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1689</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1690</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -31976,37 +32029,37 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C2" t="s">
         <v>1691</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1692</v>
       </c>
       <c r="D2" t="s">
         <v>878</v>
       </c>
       <c r="E2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F2" t="s">
         <v>1693</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I2" t="s">
         <v>1694</v>
       </c>
-      <c r="G2" t="s">
-        <v>1871</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>1695</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1696</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1697</v>
       </c>
       <c r="M2" t="s">
         <v>142</v>
@@ -32059,37 +32112,37 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B3" t="s">
         <v>1698</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1699</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1700</v>
       </c>
       <c r="D3" t="s">
         <v>186</v>
       </c>
       <c r="E3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F3" t="s">
         <v>1701</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1702</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>1703</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>1704</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>1705</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>1706</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1707</v>
       </c>
       <c r="M3" t="s">
         <v>231</v>
@@ -32142,37 +32195,37 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C4" t="s">
         <v>1708</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1709</v>
       </c>
       <c r="D4" t="s">
         <v>323</v>
       </c>
       <c r="E4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F4" t="s">
         <v>1710</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1711</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K4" t="s">
         <v>1712</v>
       </c>
-      <c r="H4" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>1713</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1714</v>
       </c>
       <c r="M4" t="s">
         <v>124</v>
@@ -32225,43 +32278,43 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C5" t="s">
         <v>1715</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1716</v>
       </c>
       <c r="D5" t="s">
         <v>116</v>
       </c>
       <c r="E5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F5" t="s">
         <v>1717</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>1718</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I5" t="s">
         <v>1719</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1878</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1720</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
       <c r="K5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L5" t="s">
         <v>1721</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>1722</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1723</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -32311,37 +32364,37 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B6" t="s">
         <v>1724</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>1725</v>
       </c>
-      <c r="C6" t="s">
-        <v>1726</v>
-      </c>
       <c r="D6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E6" t="s">
         <v>130</v>
       </c>
       <c r="F6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G6" t="s">
         <v>1727</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>1728</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1729</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>1730</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>1731</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1732</v>
       </c>
       <c r="M6" t="s">
         <v>69</v>
@@ -32394,40 +32447,40 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C7" t="s">
         <v>1733</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1734</v>
       </c>
       <c r="D7" t="s">
         <v>494</v>
       </c>
       <c r="E7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F7" t="s">
         <v>1735</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>1736</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I7" t="s">
         <v>1737</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1880</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1738</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
       </c>
       <c r="K7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L7" t="s">
         <v>1739</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1740</v>
       </c>
       <c r="M7" t="s">
         <v>56</v>
@@ -32480,40 +32533,40 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C8" t="s">
         <v>1741</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1742</v>
       </c>
       <c r="D8" t="s">
         <v>1046</v>
       </c>
       <c r="E8" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F8" t="s">
         <v>1743</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1744</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I8" t="s">
         <v>1745</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1882</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1746</v>
       </c>
       <c r="J8" t="s">
         <v>127</v>
       </c>
       <c r="K8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="L8" t="s">
         <v>1747</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1748</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
